--- a/data/data-extraction-rob-analysis.xlsx
+++ b/data/data-extraction-rob-analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveplymouthac-my.sharepoint.com/personal/stephanie_riley_plymouth_ac_uk/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveplymouthac-my.sharepoint.com/personal/yinghui_wei_plymouth_ac_uk/Documents/Research/Research Projects/01 Yinghui Team/methods-review-kidney-transplant-prediction/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAD4146F-C386-4501-A6A5-26D24FD4E009}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{EAD4146F-C386-4501-A6A5-26D24FD4E009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B744F41D-20E8-4A44-84E2-264DBB1B9F6B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoB" sheetId="1" r:id="rId1"/>
@@ -4409,11 +4409,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219FBC58-C9F2-423A-B144-EA8CECC56C72}">
   <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B10" sqref="A10:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -9710,7 +9714,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -9755,7 +9759,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -12843,6 +12847,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010089D5ED9EE65DB540B754B079D91E3302" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ec17a5c308376be43256775232b138b5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e8c30475-6c32-48d0-bf2d-dceab5e3a971" xmlns:ns4="c815e11e-726b-461a-856a-435a266225cc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd9e7fbb190edfa10e27309992adf2d9" ns3:_="" ns4:_="">
     <xsd:import namespace="e8c30475-6c32-48d0-bf2d-dceab5e3a971"/>
@@ -13053,22 +13072,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{009DD749-0EA4-4A68-AF30-CE76BDF91A67}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c815e11e-726b-461a-856a-435a266225cc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="e8c30475-6c32-48d0-bf2d-dceab5e3a971"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE4A1983-5249-4927-A5A8-E44FB265B9EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FF9573F-9B1E-42E1-81B0-833787485F89}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13085,29 +13114,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE4A1983-5249-4927-A5A8-E44FB265B9EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{009DD749-0EA4-4A68-AF30-CE76BDF91A67}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c815e11e-726b-461a-856a-435a266225cc"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="e8c30475-6c32-48d0-bf2d-dceab5e3a971"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>